--- a/documentation/BOM.xlsx
+++ b/documentation/BOM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AD078A-13CE-43CA-AB77-80BA7B79EE1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B923CB6A-D542-45BF-8259-414FF306217D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -131,7 +132,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -190,16 +191,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -487,7 +488,7 @@
   <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +527,7 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E3">
@@ -568,7 +569,7 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E5">
@@ -589,7 +590,7 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E6">
@@ -610,7 +611,7 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E7">
@@ -631,7 +632,7 @@
       <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E8">
@@ -652,7 +653,7 @@
       <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E9">
@@ -673,7 +674,7 @@
       <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E10">
@@ -694,7 +695,7 @@
       <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E11">
@@ -715,7 +716,7 @@
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>321010003</v>
       </c>
       <c r="E12">

--- a/documentation/BOM.xlsx
+++ b/documentation/BOM.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B923CB6A-D542-45BF-8259-414FF306217D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173432DF-F54B-4967-B1B0-E4B38990C9D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
     <t>Manufacturer Part #</t>
   </si>
   <si>
@@ -46,12 +42,6 @@
     <t>Extended Price</t>
   </si>
   <si>
-    <t>Arduino</t>
-  </si>
-  <si>
-    <t>Seeed Technology Co., Ltd</t>
-  </si>
-  <si>
     <t>CANBUS SHIELD V2</t>
   </si>
   <si>
@@ -64,93 +54,63 @@
     <t>CONN RCPT HSG 3POS</t>
   </si>
   <si>
-    <t>TE Connectivity Deutsch Connectors</t>
-  </si>
-  <si>
     <t>DT04-3P-L012</t>
   </si>
   <si>
-    <t>LED 5MM BLUE CLR PANEL MOUNT</t>
-  </si>
-  <si>
-    <t>Dialight</t>
-  </si>
-  <si>
-    <t>5596001007F</t>
-  </si>
-  <si>
-    <t>LED 5MM GREEN CLR PANEL MOUNT</t>
-  </si>
-  <si>
-    <t>5596201007F</t>
-  </si>
-  <si>
-    <t>MACHINE SCREW PAN PHILLIPS 4-40</t>
-  </si>
-  <si>
-    <t>APM Hexseal</t>
-  </si>
-  <si>
-    <t>R4-40X1/4 2701</t>
-  </si>
-  <si>
-    <t>AC/DC WALL MOUNT ADAPTER 9V 5W</t>
-  </si>
-  <si>
-    <t>XP Power</t>
-  </si>
-  <si>
-    <t>VEL05US090-US-JA</t>
-  </si>
-  <si>
-    <t>RES 56 OHM 1/2W 5% CF MINI</t>
-  </si>
-  <si>
-    <t>Stackpole Electronics Inc</t>
-  </si>
-  <si>
-    <t>CFM12JT56R0</t>
-  </si>
-  <si>
-    <t>BUMPER SQU 0.812"L X 0.812"W BLK</t>
-  </si>
-  <si>
-    <t>3M</t>
-  </si>
-  <si>
-    <t>SJ-5523 (BLACK)</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>USB CABLE TYPE A TO B 30CM BLACK</t>
+    <t>In-House</t>
+  </si>
+  <si>
+    <t>PNL MNT W/ WIRE 568NM 40MCD GRN</t>
+  </si>
+  <si>
+    <t>PM5GT</t>
+  </si>
+  <si>
+    <t>PNL MNT W/ WIRE 590NM 40MCD YLW</t>
+  </si>
+  <si>
+    <t>PM5YT</t>
+  </si>
+  <si>
+    <t>SWITCH ROCKER DPDT 16A 125V</t>
+  </si>
+  <si>
+    <t>GRS-4022-1600</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>CONN PIN 14AWG NICKEL CRIMP</t>
+  </si>
+  <si>
+    <t>0460-215-16141</t>
+  </si>
+  <si>
+    <t>18-8 Stainless Steel Socket Cap Screw</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>#4 F/W S/S .125x.312</t>
+  </si>
+  <si>
+    <t>4-40 S/S MS Nut</t>
+  </si>
+  <si>
+    <t>RES 100 OHM 1/4W 5% AXIAL</t>
+  </si>
+  <si>
+    <t>CF14JT100R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -161,6 +121,13 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -188,25 +155,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -488,16 +469,17 @@
   <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
     <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.35">
@@ -517,226 +499,217 @@
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>20.9</v>
+      </c>
+      <c r="F3" s="4">
+        <v>20.9</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C4" s="3">
+        <v>103030215</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>24.99</v>
+      </c>
+      <c r="F4" s="4">
+        <v>24.99</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.38</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1.38</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>20.9</v>
-      </c>
-      <c r="G3" s="4">
-        <f t="shared" ref="G3:G12" si="0">F3*E3</f>
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3">
-        <v>103030215</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>24.99</v>
-      </c>
-      <c r="G4" s="4">
-        <f t="shared" si="0"/>
-        <v>24.99</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
         <v>4.3499999999999996</v>
       </c>
-      <c r="G5" s="4">
-        <f t="shared" si="0"/>
+      <c r="F8" s="4">
         <v>4.3499999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" si="0"/>
-        <v>9.1199999999999992</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="G8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
+    </row>
+    <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="0"/>
-        <v>9.1199999999999992</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.26</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3">
+        <v>73412</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3">
+        <v>71004</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1170704</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
         <v>0.1</v>
       </c>
-      <c r="G8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.63</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="0"/>
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3">
-        <v>321010003</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1.99</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" si="0"/>
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="4">
-        <f>SUM(G3:G12)</f>
-        <v>79.930000000000007</v>
+      <c r="F13" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/BOM.xlsx
+++ b/documentation/BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173432DF-F54B-4967-B1B0-E4B38990C9D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4963687-5983-4324-9B15-75CFD2D3B9F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Description</t>
   </si>
@@ -103,13 +103,37 @@
   </si>
   <si>
     <t>CF14JT100R</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>AC/DC WALL MOUNT ADAPTER 9V 5W</t>
+  </si>
+  <si>
+    <t>VEL05US090-US-JA</t>
+  </si>
+  <si>
+    <t>BUMPER SQU 0.812"L X 0.812"W BLK</t>
+  </si>
+  <si>
+    <t>SJ-5523 (BLACK)</t>
+  </si>
+  <si>
+    <t>USB CABLE TYPE A TO B 30CM BLACK</t>
+  </si>
+  <si>
+    <t>Seeed Technology Co., Ltd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +152,21 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -171,23 +210,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G13"/>
+  <dimension ref="B2:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,109 +557,115 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
         <v>20.9</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
+        <f>E3*D3</f>
         <v>20.9</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>103030215</v>
       </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
         <v>24.99</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F9" si="0">E4*D4</f>
         <v>24.99</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
         <v>0.39</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
         <v>0.39</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
         <v>0.39</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
         <v>0.39</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
         <v>1.38</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
         <v>1.38</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
         <v>4.3499999999999996</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
         <v>4.3499999999999996</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -616,19 +673,20 @@
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
         <v>0.63</v>
       </c>
-      <c r="F9" s="4">
-        <v>1.26</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.63</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -636,19 +694,19 @@
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>73412</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>4</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -656,19 +714,19 @@
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>71004</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>4</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -676,19 +734,19 @@
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>1170704</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>4</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -696,20 +754,93 @@
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
         <v>0.1</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
+        <f>E13*D13</f>
         <v>0.1</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14:F16" si="1">E14*D14</f>
+        <v>6.5</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1.99</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="1"/>
+        <v>1.99</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7">
+        <f>SUM(F3:F16)</f>
+        <v>63.120000000000012</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/BOM.xlsx
+++ b/documentation/BOM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4963687-5983-4324-9B15-75CFD2D3B9F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BCAC10-2A4A-460F-8B44-5D974BD285B5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Description</t>
   </si>
@@ -33,9 +34,6 @@
     <t>Manufacturer Part #</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -60,18 +58,9 @@
     <t>In-House</t>
   </si>
   <si>
-    <t>PNL MNT W/ WIRE 568NM 40MCD GRN</t>
-  </si>
-  <si>
     <t>PM5GT</t>
   </si>
   <si>
-    <t>PNL MNT W/ WIRE 590NM 40MCD YLW</t>
-  </si>
-  <si>
-    <t>PM5YT</t>
-  </si>
-  <si>
     <t>SWITCH ROCKER DPDT 16A 125V</t>
   </si>
   <si>
@@ -114,16 +103,31 @@
     <t>VEL05US090-US-JA</t>
   </si>
   <si>
-    <t>BUMPER SQU 0.812"L X 0.812"W BLK</t>
-  </si>
-  <si>
-    <t>SJ-5523 (BLACK)</t>
-  </si>
-  <si>
     <t>USB CABLE TYPE A TO B 30CM BLACK</t>
   </si>
   <si>
-    <t>Seeed Technology Co., Ltd</t>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>LED Panel Mount Indicators 5mm Grn</t>
+  </si>
+  <si>
+    <t>LED Panel Mount Indicators Blue 430nm</t>
+  </si>
+  <si>
+    <t>PM5BWC</t>
+  </si>
+  <si>
+    <t>FLEX RLTF 7 BLK w/3165 NUT</t>
+  </si>
+  <si>
+    <t>Mounting Hardware 0.5x.14" Rubber Feet</t>
+  </si>
+  <si>
+    <t>1421T2GY</t>
+  </si>
+  <si>
+    <t>Seeed Technology</t>
   </si>
 </sst>
 </file>
@@ -131,9 +135,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,31 +146,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -181,12 +176,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -195,10 +190,64 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -209,36 +258,214 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -517,331 +744,351 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G18"/>
+  <dimension ref="B1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.85546875" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="7" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1</v>
+      </c>
+      <c r="E3" s="16">
+        <v>20.9</v>
+      </c>
+      <c r="F3" s="16">
+        <f>D3*E3</f>
+        <v>20.9</v>
+      </c>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="C4" s="3">
+        <v>103030215</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>24.5</v>
+      </c>
+      <c r="F4" s="16">
+        <f t="shared" ref="F4:F17" si="0">D4*E4</f>
+        <v>24.5</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
-        <v>20.9</v>
-      </c>
-      <c r="F3" s="5">
-        <f>E3*D3</f>
-        <v>20.9</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>103030215</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>24.99</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" ref="F4:F9" si="0">E4*D4</f>
-        <v>24.99</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="F5" s="16">
+        <f t="shared" si="0"/>
+        <v>0.69</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.39</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>0.39</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.39</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="0"/>
-        <v>0.39</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
         <v>1.38</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="16">
         <f t="shared" si="0"/>
         <v>1.38</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
         <v>4.3499999999999996</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="16">
         <f t="shared" si="0"/>
         <v>4.3499999999999996</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>17</v>
+      <c r="G8" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
         <v>0.63</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="16">
         <f t="shared" si="0"/>
         <v>0.63</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3">
+        <v>73412</v>
+      </c>
+      <c r="D10" s="6">
+        <v>4</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="F10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3">
+        <v>71004</v>
+      </c>
+      <c r="D11" s="6">
+        <v>4</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1170704</v>
+      </c>
+      <c r="D12" s="6">
+        <v>4</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4">
-        <v>73412</v>
-      </c>
-      <c r="D10" s="3">
-        <v>4</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="16">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="F14" s="16">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3464</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1.17</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="0"/>
+        <v>1.17</v>
+      </c>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>6.48</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" si="0"/>
+        <v>6.48</v>
+      </c>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1.99</v>
+      </c>
+      <c r="F17" s="16">
+        <f t="shared" si="0"/>
+        <v>1.99</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4">
-        <v>71004</v>
-      </c>
-      <c r="D11" s="3">
-        <v>4</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1170704</v>
-      </c>
-      <c r="D12" s="3">
-        <v>4</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F13" s="5">
-        <f>E13*D13</f>
-        <v>0.1</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" ref="F14:F16" si="1">E14*D14</f>
-        <v>6.5</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="6">
-        <v>1.99</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="1"/>
-        <v>1.99</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="7">
-        <f>SUM(F3:F16)</f>
-        <v>63.120000000000012</v>
-      </c>
+      <c r="F18" s="23">
+        <v>70.09</v>
+      </c>
+      <c r="G18" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
